--- a/xlbricks/examples/examples.xlsx
+++ b/xlbricks/examples/examples.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/ad9c6bb6c9261885/Documents/MyDocuments/Coding/python/xlbricks/examples/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/ad9c6bb6c9261885/Documents/MyDocuments/Coding/python/xlbricks/xlbricks/examples/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="21" documentId="8_{3ADDD35A-D8C5-4308-8D23-6D95048F4B25}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{CFB8A626-9314-4C7F-A4AF-E4BF9EBA41B7}"/>
+  <xr:revisionPtr revIDLastSave="29" documentId="8_{3ADDD35A-D8C5-4308-8D23-6D95048F4B25}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{3D4C720B-EF7F-44E8-A170-56EDB85F07A3}"/>
   <bookViews>
-    <workbookView xWindow="750" yWindow="1110" windowWidth="21600" windowHeight="11295" xr2:uid="{37C52A62-0E67-48BB-B316-6A47F3E2369D}"/>
+    <workbookView xWindow="2730" yWindow="2730" windowWidth="21600" windowHeight="11295" xr2:uid="{37C52A62-0E67-48BB-B316-6A47F3E2369D}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -18,7 +18,7 @@
   <externalReferences>
     <externalReference r:id="rId2"/>
   </externalReferences>
-  <calcPr calcId="191029" concurrentCalc="0"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -224,7 +224,7 @@
   </cellStyleXfs>
   <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -583,7 +583,7 @@
   <dimension ref="B3:B76"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="105" workbookViewId="0">
-      <selection activeCell="B3" sqref="B3"/>
+      <selection activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
